--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.631100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.631100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD3D473-12B2-4C3A-8BC3-CFA7326A38B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2932D1D3-34BF-415C-A48B-BC3F026254A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T065836.817" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T061253.884" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="134">
   <si>
     <t>Do Ty</t>
   </si>
@@ -362,6 +362,54 @@
   </si>
   <si>
     <t>PT.KONOIKE TRANSPORT INDONESIA</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Inventory Issue</t>
+  </si>
+  <si>
+    <t>ALL_LOKAL</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>IKA_K</t>
+  </si>
+  <si>
+    <t>NR011/EXP/KIDIA/II/24</t>
+  </si>
+  <si>
+    <t>PT. GARUDA INDONESIA (PERSERO)</t>
+  </si>
+  <si>
+    <t>NR10005009</t>
+  </si>
+  <si>
+    <t>PT.NUSANTARA SATRIA AGUNG</t>
+  </si>
+  <si>
+    <t>NSA-2024-0393</t>
+  </si>
+  <si>
+    <t>JASA PENYEDIA TENAGA KERJA</t>
+  </si>
+  <si>
+    <t>BIAYA TENAGA KERJA NSA CLN</t>
+  </si>
+  <si>
+    <t>NSA-2024-0505</t>
+  </si>
+  <si>
+    <t>KEKURANGAN BIAYA TENAGA KERJA</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1216,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ43"/>
+  <dimension ref="A1:AZ53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6473,68 +6521,1384 @@
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40">
+        <v>24001040</v>
+      </c>
+      <c r="D40">
+        <v>1201</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45342</v>
+      </c>
       <c r="F40" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="2">
-        <v>6137.92</v>
-      </c>
-      <c r="H40" s="2">
-        <v>6137.92</v>
-      </c>
-      <c r="L40" s="2">
-        <v>96951644</v>
-      </c>
-      <c r="N40" s="2">
-        <v>96951644</v>
+        <v>116</v>
+      </c>
+      <c r="I40" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>56</v>
+      </c>
+      <c r="R40" t="s">
+        <v>117</v>
+      </c>
+      <c r="T40" t="s">
+        <v>58</v>
+      </c>
+      <c r="U40" t="s">
+        <v>59</v>
+      </c>
+      <c r="V40" t="s">
+        <v>118</v>
+      </c>
+      <c r="W40" t="s">
+        <v>119</v>
+      </c>
+      <c r="X40">
+        <v>2104120</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>56</v>
       </c>
       <c r="AG40">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP40">
+        <v>1201</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR40">
+        <v>209918</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY40">
+        <v>631100</v>
+      </c>
+      <c r="AZ40">
+        <v>1201.6311000000001</v>
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>24001700</v>
+      </c>
+      <c r="D41">
+        <v>1201</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45343</v>
+      </c>
       <c r="F41" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="2">
-        <v>6137.92</v>
-      </c>
-      <c r="H41" s="2">
-        <v>6137.92</v>
+        <v>68</v>
+      </c>
+      <c r="G41">
+        <v>31.77</v>
+      </c>
+      <c r="H41">
+        <v>31.77</v>
+      </c>
+      <c r="I41" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" t="s">
+        <v>55</v>
       </c>
       <c r="L41" s="2">
-        <v>96951644</v>
+        <v>502091</v>
       </c>
       <c r="N41" s="2">
-        <v>96951644</v>
+        <v>502091</v>
+      </c>
+      <c r="O41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>56</v>
+      </c>
+      <c r="R41" t="s">
+        <v>57</v>
+      </c>
+      <c r="S41">
+        <v>15803</v>
+      </c>
+      <c r="T41" t="s">
+        <v>58</v>
+      </c>
+      <c r="U41" t="s">
+        <v>59</v>
+      </c>
+      <c r="V41" t="s">
+        <v>60</v>
+      </c>
+      <c r="W41" t="s">
+        <v>61</v>
+      </c>
+      <c r="X41">
+        <v>2104769</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>56</v>
       </c>
       <c r="AG41">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI41">
+        <v>55113299</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP41">
+        <v>1201</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX41">
+        <v>24001232</v>
+      </c>
+      <c r="AY41">
+        <v>631100</v>
+      </c>
+      <c r="AZ41">
+        <v>1201.6311000000001</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>24001701</v>
+      </c>
+      <c r="D42">
+        <v>1201</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45343</v>
+      </c>
       <c r="F42" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" s="2">
-        <v>6137.92</v>
-      </c>
-      <c r="H42" s="2">
-        <v>6137.92</v>
+        <v>68</v>
+      </c>
+      <c r="G42">
+        <v>31.77</v>
+      </c>
+      <c r="H42">
+        <v>31.77</v>
+      </c>
+      <c r="I42" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
       </c>
       <c r="L42" s="2">
-        <v>96951644</v>
+        <v>502091</v>
       </c>
       <c r="N42" s="2">
-        <v>96951644</v>
+        <v>502091</v>
+      </c>
+      <c r="O42" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R42" t="s">
+        <v>57</v>
+      </c>
+      <c r="S42">
+        <v>15803</v>
+      </c>
+      <c r="T42" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42" t="s">
+        <v>59</v>
+      </c>
+      <c r="V42" t="s">
+        <v>60</v>
+      </c>
+      <c r="W42" t="s">
+        <v>61</v>
+      </c>
+      <c r="X42">
+        <v>2104769</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>56</v>
       </c>
       <c r="AG42">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI42">
+        <v>55113299</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP42">
+        <v>1201</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX42">
+        <v>24001232</v>
+      </c>
+      <c r="AY42">
+        <v>631100</v>
+      </c>
+      <c r="AZ42">
+        <v>1201.6311000000001</v>
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43">
+        <v>24001702</v>
+      </c>
+      <c r="D43">
+        <v>1201</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45343</v>
+      </c>
       <c r="F43" t="s">
-        <v>117</v>
+        <v>68</v>
+      </c>
+      <c r="G43">
+        <v>43.49</v>
+      </c>
+      <c r="H43">
+        <v>43.49</v>
+      </c>
+      <c r="I43" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="2">
+        <v>687341</v>
+      </c>
+      <c r="N43" s="2">
+        <v>687341</v>
+      </c>
+      <c r="O43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" t="s">
+        <v>57</v>
+      </c>
+      <c r="S43">
+        <v>15803</v>
+      </c>
+      <c r="T43" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" t="s">
+        <v>59</v>
+      </c>
+      <c r="V43" t="s">
+        <v>60</v>
+      </c>
+      <c r="W43" t="s">
+        <v>61</v>
+      </c>
+      <c r="X43">
+        <v>2104769</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI43">
+        <v>55113299</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP43">
+        <v>1201</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX43">
+        <v>24001232</v>
+      </c>
+      <c r="AY43">
+        <v>631100</v>
+      </c>
+      <c r="AZ43">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>24001703</v>
+      </c>
+      <c r="D44">
+        <v>1201</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44">
+        <v>31.77</v>
+      </c>
+      <c r="H44">
+        <v>31.77</v>
+      </c>
+      <c r="I44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="2">
+        <v>502091</v>
+      </c>
+      <c r="N44" s="2">
+        <v>502091</v>
+      </c>
+      <c r="O44" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44">
+        <v>15803</v>
+      </c>
+      <c r="T44" t="s">
+        <v>58</v>
+      </c>
+      <c r="U44" t="s">
+        <v>59</v>
+      </c>
+      <c r="V44" t="s">
+        <v>60</v>
+      </c>
+      <c r="W44" t="s">
+        <v>61</v>
+      </c>
+      <c r="X44">
+        <v>2104769</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI44">
+        <v>55113299</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>45339</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP44">
+        <v>1201</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX44">
+        <v>24001232</v>
+      </c>
+      <c r="AY44">
+        <v>631100</v>
+      </c>
+      <c r="AZ44">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>24001713</v>
+      </c>
+      <c r="D45">
+        <v>1201</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45">
+        <v>46.33</v>
+      </c>
+      <c r="H45">
+        <v>46.33</v>
+      </c>
+      <c r="I45" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" s="2">
+        <v>732153</v>
+      </c>
+      <c r="N45" s="2">
+        <v>732153</v>
+      </c>
+      <c r="O45" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>56</v>
+      </c>
+      <c r="R45" t="s">
+        <v>57</v>
+      </c>
+      <c r="S45">
+        <v>15803</v>
+      </c>
+      <c r="T45" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" t="s">
+        <v>59</v>
+      </c>
+      <c r="V45" t="s">
+        <v>60</v>
+      </c>
+      <c r="W45" t="s">
+        <v>61</v>
+      </c>
+      <c r="X45">
+        <v>2104872</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI45">
+        <v>57304179</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>45279</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP45">
+        <v>1201</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX45">
+        <v>24001120</v>
+      </c>
+      <c r="AY45">
+        <v>631100</v>
+      </c>
+      <c r="AZ45">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>24001726</v>
+      </c>
+      <c r="D46">
+        <v>1201</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F46" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46">
+        <v>169.5</v>
+      </c>
+      <c r="H46">
+        <v>169.5</v>
+      </c>
+      <c r="I46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" s="2">
+        <v>2678654</v>
+      </c>
+      <c r="N46" s="2">
+        <v>2678654</v>
+      </c>
+      <c r="O46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46" t="s">
+        <v>57</v>
+      </c>
+      <c r="S46">
+        <v>15803</v>
+      </c>
+      <c r="T46" t="s">
+        <v>58</v>
+      </c>
+      <c r="U46" t="s">
+        <v>59</v>
+      </c>
+      <c r="V46" t="s">
+        <v>60</v>
+      </c>
+      <c r="W46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X46">
+        <v>2105254</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI46">
+        <v>55417891</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP46">
+        <v>1201</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX46">
+        <v>24001247</v>
+      </c>
+      <c r="AY46">
+        <v>631100</v>
+      </c>
+      <c r="AZ46">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>24001727</v>
+      </c>
+      <c r="D47">
+        <v>1201</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1695.03</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1695.03</v>
+      </c>
+      <c r="I47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" s="2">
+        <v>26786543</v>
+      </c>
+      <c r="N47" s="2">
+        <v>26786543</v>
+      </c>
+      <c r="O47" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" t="s">
+        <v>57</v>
+      </c>
+      <c r="S47">
+        <v>15803</v>
+      </c>
+      <c r="T47" t="s">
+        <v>58</v>
+      </c>
+      <c r="U47" t="s">
+        <v>59</v>
+      </c>
+      <c r="V47" t="s">
+        <v>60</v>
+      </c>
+      <c r="W47" t="s">
+        <v>61</v>
+      </c>
+      <c r="X47">
+        <v>2105255</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI47">
+        <v>55417891</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP47">
+        <v>1201</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX47">
+        <v>24001247</v>
+      </c>
+      <c r="AY47">
+        <v>631100</v>
+      </c>
+      <c r="AZ47">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>24001728</v>
+      </c>
+      <c r="D48">
+        <v>1201</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F48" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48">
+        <v>1.52</v>
+      </c>
+      <c r="H48">
+        <v>1.52</v>
+      </c>
+      <c r="I48" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" s="2">
+        <v>23948</v>
+      </c>
+      <c r="N48" s="2">
+        <v>23948</v>
+      </c>
+      <c r="O48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>56</v>
+      </c>
+      <c r="R48" t="s">
+        <v>57</v>
+      </c>
+      <c r="S48">
+        <v>15803</v>
+      </c>
+      <c r="T48" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" t="s">
+        <v>59</v>
+      </c>
+      <c r="V48" t="s">
+        <v>60</v>
+      </c>
+      <c r="W48" t="s">
+        <v>61</v>
+      </c>
+      <c r="X48">
+        <v>2105317</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI48">
+        <v>55417891</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP48">
+        <v>1201</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX48">
+        <v>24001246</v>
+      </c>
+      <c r="AY48">
+        <v>631100</v>
+      </c>
+      <c r="AZ48">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>24001730</v>
+      </c>
+      <c r="D49">
+        <v>1201</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F49" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49">
+        <v>15.15</v>
+      </c>
+      <c r="H49">
+        <v>15.15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" s="2">
+        <v>239484</v>
+      </c>
+      <c r="N49" s="2">
+        <v>239484</v>
+      </c>
+      <c r="O49" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>56</v>
+      </c>
+      <c r="R49" t="s">
+        <v>57</v>
+      </c>
+      <c r="S49">
+        <v>15803</v>
+      </c>
+      <c r="T49" t="s">
+        <v>58</v>
+      </c>
+      <c r="U49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V49" t="s">
+        <v>60</v>
+      </c>
+      <c r="W49" t="s">
+        <v>61</v>
+      </c>
+      <c r="X49">
+        <v>2105320</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG49">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI49">
+        <v>55417891</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP49">
+        <v>1201</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX49">
+        <v>24001246</v>
+      </c>
+      <c r="AY49">
+        <v>631100</v>
+      </c>
+      <c r="AZ49">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="2">
+        <v>8204.25</v>
+      </c>
+      <c r="H50" s="2">
+        <v>8204.25</v>
+      </c>
+      <c r="L50" s="2">
+        <v>129606040</v>
+      </c>
+      <c r="N50" s="2">
+        <v>129606040</v>
+      </c>
+      <c r="AG50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51" s="2">
+        <v>8204.25</v>
+      </c>
+      <c r="H51" s="2">
+        <v>8204.25</v>
+      </c>
+      <c r="L51" s="2">
+        <v>129606040</v>
+      </c>
+      <c r="N51" s="2">
+        <v>129606040</v>
+      </c>
+      <c r="AG51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>132</v>
+      </c>
+      <c r="G52" s="2">
+        <v>8204.25</v>
+      </c>
+      <c r="H52" s="2">
+        <v>8204.25</v>
+      </c>
+      <c r="L52" s="2">
+        <v>129606040</v>
+      </c>
+      <c r="N52" s="2">
+        <v>129606040</v>
+      </c>
+      <c r="AG52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.631100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.631100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2932D1D3-34BF-415C-A48B-BC3F026254A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F718CDC8-F6CE-4F09-8EFC-6481BE0B802F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T061253.884" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T061330.058" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="156">
   <si>
     <t>Do Ty</t>
   </si>
@@ -385,6 +385,27 @@
     <t>IKA_K</t>
   </si>
   <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>OTHER PRODUCTION COST</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>TSANTIKA</t>
+  </si>
+  <si>
+    <t>KIRIM BARANG&amp;SAMPLE BY GOSEND</t>
+  </si>
+  <si>
     <t>NR011/EXP/KIDIA/II/24</t>
   </si>
   <si>
@@ -406,10 +427,55 @@
     <t>BIAYA TENAGA KERJA NSA CLN</t>
   </si>
   <si>
+    <t>ALL_WINA SARANA PRODUKSI</t>
+  </si>
+  <si>
     <t>NSA-2024-0505</t>
   </si>
   <si>
     <t>KEKURANGAN BIAYA TENAGA KERJA</t>
+  </si>
+  <si>
+    <t>IV10032777</t>
+  </si>
+  <si>
+    <t>NR10005007</t>
+  </si>
+  <si>
+    <t>PT SANGGRAHA PINTAR LOGISTIK I</t>
+  </si>
+  <si>
+    <t>PT. SITC INDONESIA</t>
+  </si>
+  <si>
+    <t>UNIAIR INDOTAMA CARGO, PT.</t>
+  </si>
+  <si>
+    <t>IV70000002</t>
+  </si>
+  <si>
+    <t>NR70000002</t>
+  </si>
+  <si>
+    <t>IV70000015</t>
+  </si>
+  <si>
+    <t>NR70000008</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>JOURNAL KOREKSI</t>
+  </si>
+  <si>
+    <t>KOREKSI FREIGHT IN</t>
+  </si>
+  <si>
+    <t>SANTY</t>
+  </si>
+  <si>
+    <t>INSENTIF GM1 DESEMBER 2023</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1264,7 +1330,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ53"/>
+  <dimension ref="A1:AZ69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6632,13 +6698,13 @@
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C41">
-        <v>24001700</v>
+        <v>24001047</v>
       </c>
       <c r="D41">
         <v>1201</v>
@@ -6647,13 +6713,13 @@
         <v>45343</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="G41">
-        <v>31.77</v>
+        <v>139.72</v>
       </c>
       <c r="H41">
-        <v>31.77</v>
+        <v>139.72</v>
       </c>
       <c r="I41" t="s">
         <v>55</v>
@@ -6662,10 +6728,10 @@
         <v>55</v>
       </c>
       <c r="L41" s="2">
-        <v>502091</v>
+        <v>2208054</v>
       </c>
       <c r="N41" s="2">
-        <v>502091</v>
+        <v>2208054</v>
       </c>
       <c r="O41" t="s">
         <v>56</v>
@@ -6686,55 +6752,46 @@
         <v>59</v>
       </c>
       <c r="V41" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="W41" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="X41">
-        <v>2104769</v>
+        <v>2105767</v>
       </c>
       <c r="Y41" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM41" s="1">
         <v>45343</v>
       </c>
-      <c r="Z41" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA41">
-        <v>1</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG41">
-        <v>1</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI41">
-        <v>55113299</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM41" s="1">
-        <v>45339</v>
-      </c>
       <c r="AN41" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="AO41" t="s">
         <v>64</v>
@@ -6746,7 +6803,7 @@
         <v>65</v>
       </c>
       <c r="AR41" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="AU41" t="s">
         <v>56</v>
@@ -6754,8 +6811,8 @@
       <c r="AV41" t="s">
         <v>67</v>
       </c>
-      <c r="AX41">
-        <v>24001232</v>
+      <c r="AX41" t="s">
+        <v>56</v>
       </c>
       <c r="AY41">
         <v>631100</v>
@@ -6772,7 +6829,7 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>24001701</v>
+        <v>24001700</v>
       </c>
       <c r="D42">
         <v>1201</v>
@@ -6862,7 +6919,7 @@
         <v>68</v>
       </c>
       <c r="AL42" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AM42" s="1">
         <v>45339</v>
@@ -6906,7 +6963,7 @@
         <v>53</v>
       </c>
       <c r="C43">
-        <v>24001702</v>
+        <v>24001701</v>
       </c>
       <c r="D43">
         <v>1201</v>
@@ -6918,10 +6975,10 @@
         <v>68</v>
       </c>
       <c r="G43">
-        <v>43.49</v>
+        <v>31.77</v>
       </c>
       <c r="H43">
-        <v>43.49</v>
+        <v>31.77</v>
       </c>
       <c r="I43" t="s">
         <v>55</v>
@@ -6930,10 +6987,10 @@
         <v>55</v>
       </c>
       <c r="L43" s="2">
-        <v>687341</v>
+        <v>502091</v>
       </c>
       <c r="N43" s="2">
-        <v>687341</v>
+        <v>502091</v>
       </c>
       <c r="O43" t="s">
         <v>56</v>
@@ -6996,7 +7053,7 @@
         <v>68</v>
       </c>
       <c r="AL43" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AM43" s="1">
         <v>45339</v>
@@ -7040,7 +7097,7 @@
         <v>53</v>
       </c>
       <c r="C44">
-        <v>24001703</v>
+        <v>24001702</v>
       </c>
       <c r="D44">
         <v>1201</v>
@@ -7052,10 +7109,10 @@
         <v>68</v>
       </c>
       <c r="G44">
-        <v>31.77</v>
+        <v>43.49</v>
       </c>
       <c r="H44">
-        <v>31.77</v>
+        <v>43.49</v>
       </c>
       <c r="I44" t="s">
         <v>55</v>
@@ -7064,10 +7121,10 @@
         <v>55</v>
       </c>
       <c r="L44" s="2">
-        <v>502091</v>
+        <v>687341</v>
       </c>
       <c r="N44" s="2">
-        <v>502091</v>
+        <v>687341</v>
       </c>
       <c r="O44" t="s">
         <v>56</v>
@@ -7130,7 +7187,7 @@
         <v>68</v>
       </c>
       <c r="AL44" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AM44" s="1">
         <v>45339</v>
@@ -7174,22 +7231,22 @@
         <v>53</v>
       </c>
       <c r="C45">
-        <v>24001713</v>
+        <v>24001703</v>
       </c>
       <c r="D45">
         <v>1201</v>
       </c>
       <c r="E45" s="1">
-        <v>45344</v>
+        <v>45343</v>
       </c>
       <c r="F45" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="G45">
-        <v>46.33</v>
+        <v>31.77</v>
       </c>
       <c r="H45">
-        <v>46.33</v>
+        <v>31.77</v>
       </c>
       <c r="I45" t="s">
         <v>55</v>
@@ -7198,10 +7255,10 @@
         <v>55</v>
       </c>
       <c r="L45" s="2">
-        <v>732153</v>
+        <v>502091</v>
       </c>
       <c r="N45" s="2">
-        <v>732153</v>
+        <v>502091</v>
       </c>
       <c r="O45" t="s">
         <v>56</v>
@@ -7228,10 +7285,10 @@
         <v>61</v>
       </c>
       <c r="X45">
-        <v>2104872</v>
+        <v>2104769</v>
       </c>
       <c r="Y45" s="1">
-        <v>45344</v>
+        <v>45343</v>
       </c>
       <c r="Z45" t="s">
         <v>56</v>
@@ -7258,16 +7315,16 @@
         <v>56</v>
       </c>
       <c r="AI45">
-        <v>57304179</v>
+        <v>55113299</v>
       </c>
       <c r="AJ45" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="AL45" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AM45" s="1">
-        <v>45279</v>
+        <v>45339</v>
       </c>
       <c r="AN45" t="s">
         <v>63</v>
@@ -7282,7 +7339,7 @@
         <v>65</v>
       </c>
       <c r="AR45" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="AU45" t="s">
         <v>56</v>
@@ -7291,7 +7348,7 @@
         <v>67</v>
       </c>
       <c r="AX45">
-        <v>24001120</v>
+        <v>24001232</v>
       </c>
       <c r="AY45">
         <v>631100</v>
@@ -7308,7 +7365,7 @@
         <v>53</v>
       </c>
       <c r="C46">
-        <v>24001726</v>
+        <v>24001713</v>
       </c>
       <c r="D46">
         <v>1201</v>
@@ -7317,13 +7374,13 @@
         <v>45344</v>
       </c>
       <c r="F46" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G46">
-        <v>169.5</v>
+        <v>46.33</v>
       </c>
       <c r="H46">
-        <v>169.5</v>
+        <v>46.33</v>
       </c>
       <c r="I46" t="s">
         <v>55</v>
@@ -7332,10 +7389,10 @@
         <v>55</v>
       </c>
       <c r="L46" s="2">
-        <v>2678654</v>
+        <v>732153</v>
       </c>
       <c r="N46" s="2">
-        <v>2678654</v>
+        <v>732153</v>
       </c>
       <c r="O46" t="s">
         <v>56</v>
@@ -7362,7 +7419,7 @@
         <v>61</v>
       </c>
       <c r="X46">
-        <v>2105254</v>
+        <v>2104872</v>
       </c>
       <c r="Y46" s="1">
         <v>45344</v>
@@ -7392,19 +7449,19 @@
         <v>56</v>
       </c>
       <c r="AI46">
-        <v>55417891</v>
+        <v>57304179</v>
       </c>
       <c r="AJ46" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AL46" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AM46" s="1">
-        <v>45323</v>
+        <v>45279</v>
       </c>
       <c r="AN46" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="AO46" t="s">
         <v>64</v>
@@ -7416,7 +7473,7 @@
         <v>65</v>
       </c>
       <c r="AR46" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="AU46" t="s">
         <v>56</v>
@@ -7425,7 +7482,7 @@
         <v>67</v>
       </c>
       <c r="AX46">
-        <v>24001247</v>
+        <v>24001120</v>
       </c>
       <c r="AY46">
         <v>631100</v>
@@ -7442,7 +7499,7 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>24001727</v>
+        <v>24001726</v>
       </c>
       <c r="D47">
         <v>1201</v>
@@ -7451,13 +7508,13 @@
         <v>45344</v>
       </c>
       <c r="F47" t="s">
-        <v>124</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1695.03</v>
-      </c>
-      <c r="H47" s="2">
-        <v>1695.03</v>
+        <v>131</v>
+      </c>
+      <c r="G47">
+        <v>169.5</v>
+      </c>
+      <c r="H47">
+        <v>169.5</v>
       </c>
       <c r="I47" t="s">
         <v>55</v>
@@ -7466,10 +7523,10 @@
         <v>55</v>
       </c>
       <c r="L47" s="2">
-        <v>26786543</v>
+        <v>2678654</v>
       </c>
       <c r="N47" s="2">
-        <v>26786543</v>
+        <v>2678654</v>
       </c>
       <c r="O47" t="s">
         <v>56</v>
@@ -7496,7 +7553,7 @@
         <v>61</v>
       </c>
       <c r="X47">
-        <v>2105255</v>
+        <v>2105254</v>
       </c>
       <c r="Y47" s="1">
         <v>45344</v>
@@ -7529,10 +7586,10 @@
         <v>55417891</v>
       </c>
       <c r="AJ47" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AL47" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AM47" s="1">
         <v>45323</v>
@@ -7550,7 +7607,7 @@
         <v>65</v>
       </c>
       <c r="AR47" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AU47" t="s">
         <v>56</v>
@@ -7576,22 +7633,22 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>24001728</v>
+        <v>24001727</v>
       </c>
       <c r="D48">
         <v>1201</v>
       </c>
       <c r="E48" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="F48" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48">
-        <v>1.52</v>
-      </c>
-      <c r="H48">
-        <v>1.52</v>
+        <v>131</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1695.03</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1695.03</v>
       </c>
       <c r="I48" t="s">
         <v>55</v>
@@ -7600,10 +7657,10 @@
         <v>55</v>
       </c>
       <c r="L48" s="2">
-        <v>23948</v>
+        <v>26786543</v>
       </c>
       <c r="N48" s="2">
-        <v>23948</v>
+        <v>26786543</v>
       </c>
       <c r="O48" t="s">
         <v>56</v>
@@ -7630,10 +7687,10 @@
         <v>61</v>
       </c>
       <c r="X48">
-        <v>2105317</v>
+        <v>2105255</v>
       </c>
       <c r="Y48" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="Z48" t="s">
         <v>56</v>
@@ -7663,13 +7720,13 @@
         <v>55417891</v>
       </c>
       <c r="AJ48" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AL48" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AM48" s="1">
-        <v>45334</v>
+        <v>45323</v>
       </c>
       <c r="AN48" t="s">
         <v>75</v>
@@ -7684,7 +7741,7 @@
         <v>65</v>
       </c>
       <c r="AR48" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AU48" t="s">
         <v>56</v>
@@ -7693,7 +7750,7 @@
         <v>67</v>
       </c>
       <c r="AX48">
-        <v>24001246</v>
+        <v>24001247</v>
       </c>
       <c r="AY48">
         <v>631100</v>
@@ -7704,13 +7761,13 @@
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C49">
-        <v>24001730</v>
+        <v>24001047</v>
       </c>
       <c r="D49">
         <v>1201</v>
@@ -7719,26 +7776,17 @@
         <v>45345</v>
       </c>
       <c r="F49" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G49">
-        <v>15.15</v>
+        <v>4.45</v>
       </c>
       <c r="H49">
-        <v>15.15</v>
+        <v>4.45</v>
       </c>
       <c r="I49" t="s">
         <v>55</v>
       </c>
-      <c r="J49" t="s">
-        <v>55</v>
-      </c>
-      <c r="L49" s="2">
-        <v>239484</v>
-      </c>
-      <c r="N49" s="2">
-        <v>239484</v>
-      </c>
       <c r="O49" t="s">
         <v>56</v>
       </c>
@@ -7746,10 +7794,7 @@
         <v>56</v>
       </c>
       <c r="R49" t="s">
-        <v>57</v>
-      </c>
-      <c r="S49">
-        <v>15803</v>
+        <v>117</v>
       </c>
       <c r="T49" t="s">
         <v>58</v>
@@ -7758,55 +7803,49 @@
         <v>59</v>
       </c>
       <c r="V49" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="W49" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="X49">
-        <v>2105320</v>
+        <v>2105744</v>
       </c>
       <c r="Y49" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA49">
+        <v>6</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG49">
+        <v>5</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM49" s="1">
         <v>45345</v>
       </c>
-      <c r="Z49" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA49">
-        <v>1</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG49">
-        <v>1</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI49">
-        <v>55417891</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM49" s="1">
-        <v>45334</v>
-      </c>
       <c r="AN49" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AO49" t="s">
         <v>64</v>
@@ -7817,8 +7856,8 @@
       <c r="AQ49" t="s">
         <v>65</v>
       </c>
-      <c r="AR49" t="s">
-        <v>129</v>
+      <c r="AR49">
+        <v>257169</v>
       </c>
       <c r="AU49" t="s">
         <v>56</v>
@@ -7826,8 +7865,8 @@
       <c r="AV49" t="s">
         <v>67</v>
       </c>
-      <c r="AX49">
-        <v>24001246</v>
+      <c r="AX49" t="s">
+        <v>56</v>
       </c>
       <c r="AY49">
         <v>631100</v>
@@ -7837,68 +7876,2122 @@
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50">
+        <v>24001047</v>
+      </c>
+      <c r="D50">
+        <v>1201</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45345</v>
+      </c>
       <c r="F50" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="2">
-        <v>8204.25</v>
-      </c>
-      <c r="H50" s="2">
-        <v>8204.25</v>
-      </c>
-      <c r="L50" s="2">
-        <v>129606040</v>
-      </c>
-      <c r="N50" s="2">
-        <v>129606040</v>
-      </c>
-      <c r="AG50">
-        <v>100</v>
+        <v>135</v>
+      </c>
+      <c r="I50" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50" t="s">
+        <v>117</v>
+      </c>
+      <c r="T50" t="s">
+        <v>58</v>
+      </c>
+      <c r="U50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>118</v>
+      </c>
+      <c r="W50" t="s">
+        <v>119</v>
+      </c>
+      <c r="X50">
+        <v>2105744</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA50">
+        <v>4</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG50" s="2">
+        <v>30000</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP50">
+        <v>1201</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR50">
+        <v>280241</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY50">
+        <v>631100</v>
+      </c>
+      <c r="AZ50">
+        <v>1201.6311000000001</v>
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51">
+        <v>24001047</v>
+      </c>
+      <c r="D51">
+        <v>1201</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45345</v>
+      </c>
       <c r="F51" t="s">
-        <v>131</v>
-      </c>
-      <c r="G51" s="2">
-        <v>8204.25</v>
-      </c>
-      <c r="H51" s="2">
-        <v>8204.25</v>
-      </c>
-      <c r="L51" s="2">
-        <v>129606040</v>
-      </c>
-      <c r="N51" s="2">
-        <v>129606040</v>
-      </c>
-      <c r="AG51">
-        <v>100</v>
+        <v>135</v>
+      </c>
+      <c r="I51" t="s">
+        <v>55</v>
+      </c>
+      <c r="O51" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" t="s">
+        <v>117</v>
+      </c>
+      <c r="T51" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" t="s">
+        <v>59</v>
+      </c>
+      <c r="V51" t="s">
+        <v>118</v>
+      </c>
+      <c r="W51" t="s">
+        <v>119</v>
+      </c>
+      <c r="X51">
+        <v>2105744</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA51">
+        <v>2</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>70000</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP51">
+        <v>1201</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR51">
+        <v>280241</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY51">
+        <v>631100</v>
+      </c>
+      <c r="AZ51">
+        <v>1201.6311000000001</v>
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52">
+        <v>24001047</v>
+      </c>
+      <c r="D52">
+        <v>1201</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45345</v>
+      </c>
       <c r="F52" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52" s="2">
-        <v>8204.25</v>
-      </c>
-      <c r="H52" s="2">
-        <v>8204.25</v>
-      </c>
-      <c r="L52" s="2">
-        <v>129606040</v>
-      </c>
-      <c r="N52" s="2">
-        <v>129606040</v>
+        <v>135</v>
+      </c>
+      <c r="G52">
+        <v>17.8</v>
+      </c>
+      <c r="H52">
+        <v>17.8</v>
+      </c>
+      <c r="I52" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>56</v>
+      </c>
+      <c r="R52" t="s">
+        <v>117</v>
+      </c>
+      <c r="T52" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>118</v>
+      </c>
+      <c r="W52" t="s">
+        <v>119</v>
+      </c>
+      <c r="X52">
+        <v>2105744</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA52">
+        <v>8</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>56</v>
       </c>
       <c r="AG52">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP52">
+        <v>1201</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR52">
+        <v>264977</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY52">
+        <v>631100</v>
+      </c>
+      <c r="AZ52">
+        <v>1201.6311000000001</v>
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>24001728</v>
+      </c>
+      <c r="D53">
+        <v>1201</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45345</v>
+      </c>
       <c r="F53" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53">
+        <v>1.52</v>
+      </c>
+      <c r="H53">
+        <v>1.52</v>
+      </c>
+      <c r="I53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" s="2">
+        <v>23948</v>
+      </c>
+      <c r="N53" s="2">
+        <v>23948</v>
+      </c>
+      <c r="O53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53" t="s">
+        <v>57</v>
+      </c>
+      <c r="S53">
+        <v>15803</v>
+      </c>
+      <c r="T53" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" t="s">
+        <v>60</v>
+      </c>
+      <c r="W53" t="s">
+        <v>61</v>
+      </c>
+      <c r="X53">
+        <v>2105317</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI53">
+        <v>55417891</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP53">
+        <v>1201</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR53" t="s">
         <v>133</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX53">
+        <v>24001246</v>
+      </c>
+      <c r="AY53">
+        <v>631100</v>
+      </c>
+      <c r="AZ53">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>24001730</v>
+      </c>
+      <c r="D54">
+        <v>1201</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F54" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54">
+        <v>15.15</v>
+      </c>
+      <c r="H54">
+        <v>15.15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" s="2">
+        <v>239484</v>
+      </c>
+      <c r="N54" s="2">
+        <v>239484</v>
+      </c>
+      <c r="O54" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>56</v>
+      </c>
+      <c r="R54" t="s">
+        <v>57</v>
+      </c>
+      <c r="S54">
+        <v>15803</v>
+      </c>
+      <c r="T54" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" t="s">
+        <v>59</v>
+      </c>
+      <c r="V54" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" t="s">
+        <v>61</v>
+      </c>
+      <c r="X54">
+        <v>2105320</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG54">
+        <v>1</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI54">
+        <v>55417891</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP54">
+        <v>1201</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX54">
+        <v>24001246</v>
+      </c>
+      <c r="AY54">
+        <v>631100</v>
+      </c>
+      <c r="AZ54">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>24001737</v>
+      </c>
+      <c r="D55">
+        <v>1201</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55">
+        <v>436.94</v>
+      </c>
+      <c r="H55">
+        <v>436.94</v>
+      </c>
+      <c r="I55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="2">
+        <v>6905000</v>
+      </c>
+      <c r="N55" s="2">
+        <v>6905000</v>
+      </c>
+      <c r="O55" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>56</v>
+      </c>
+      <c r="R55" t="s">
+        <v>57</v>
+      </c>
+      <c r="S55">
+        <v>15803</v>
+      </c>
+      <c r="T55" t="s">
+        <v>58</v>
+      </c>
+      <c r="U55" t="s">
+        <v>59</v>
+      </c>
+      <c r="V55" t="s">
+        <v>60</v>
+      </c>
+      <c r="W55" t="s">
+        <v>61</v>
+      </c>
+      <c r="X55">
+        <v>2105478</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI55">
+        <v>55229662</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>45287</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP55">
+        <v>1201</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX55">
+        <v>24001221</v>
+      </c>
+      <c r="AY55">
+        <v>631100</v>
+      </c>
+      <c r="AZ55">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>24001738</v>
+      </c>
+      <c r="D56">
+        <v>1201</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56">
+        <v>29.24</v>
+      </c>
+      <c r="H56">
+        <v>29.24</v>
+      </c>
+      <c r="I56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" s="2">
+        <v>462091</v>
+      </c>
+      <c r="N56" s="2">
+        <v>462091</v>
+      </c>
+      <c r="O56" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>56</v>
+      </c>
+      <c r="R56" t="s">
+        <v>57</v>
+      </c>
+      <c r="S56">
+        <v>15803</v>
+      </c>
+      <c r="T56" t="s">
+        <v>58</v>
+      </c>
+      <c r="U56" t="s">
+        <v>59</v>
+      </c>
+      <c r="V56" t="s">
+        <v>60</v>
+      </c>
+      <c r="W56" t="s">
+        <v>61</v>
+      </c>
+      <c r="X56">
+        <v>2105478</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG56">
+        <v>1</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI56">
+        <v>55113299</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>45287</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP56">
+        <v>1201</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX56">
+        <v>24001222</v>
+      </c>
+      <c r="AY56">
+        <v>631100</v>
+      </c>
+      <c r="AZ56">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <v>24001739</v>
+      </c>
+      <c r="D57">
+        <v>1201</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G57">
+        <v>31.64</v>
+      </c>
+      <c r="H57">
+        <v>31.64</v>
+      </c>
+      <c r="I57" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L57" s="2">
+        <v>500000</v>
+      </c>
+      <c r="N57" s="2">
+        <v>500000</v>
+      </c>
+      <c r="O57" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>56</v>
+      </c>
+      <c r="R57" t="s">
+        <v>57</v>
+      </c>
+      <c r="S57">
+        <v>15803</v>
+      </c>
+      <c r="T57" t="s">
+        <v>58</v>
+      </c>
+      <c r="U57" t="s">
+        <v>59</v>
+      </c>
+      <c r="V57" t="s">
+        <v>60</v>
+      </c>
+      <c r="W57" t="s">
+        <v>61</v>
+      </c>
+      <c r="X57">
+        <v>2105478</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI57">
+        <v>57303934</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>45287</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP57">
+        <v>1201</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX57">
+        <v>24001224</v>
+      </c>
+      <c r="AY57">
+        <v>631100</v>
+      </c>
+      <c r="AZ57">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <v>24001740</v>
+      </c>
+      <c r="D58">
+        <v>1201</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F58" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58">
+        <v>175.92</v>
+      </c>
+      <c r="H58">
+        <v>175.92</v>
+      </c>
+      <c r="I58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="2">
+        <v>2780000</v>
+      </c>
+      <c r="N58" s="2">
+        <v>2780000</v>
+      </c>
+      <c r="O58" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>56</v>
+      </c>
+      <c r="R58" t="s">
+        <v>57</v>
+      </c>
+      <c r="S58">
+        <v>15803</v>
+      </c>
+      <c r="T58" t="s">
+        <v>58</v>
+      </c>
+      <c r="U58" t="s">
+        <v>59</v>
+      </c>
+      <c r="V58" t="s">
+        <v>60</v>
+      </c>
+      <c r="W58" t="s">
+        <v>61</v>
+      </c>
+      <c r="X58">
+        <v>2105478</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI58">
+        <v>57312398</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>45287</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP58">
+        <v>1201</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX58">
+        <v>24001223</v>
+      </c>
+      <c r="AY58">
+        <v>631100</v>
+      </c>
+      <c r="AZ58">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59">
+        <v>24001741</v>
+      </c>
+      <c r="D59">
+        <v>1201</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F59" t="s">
+        <v>142</v>
+      </c>
+      <c r="G59">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="H59">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="I59" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1250000</v>
+      </c>
+      <c r="N59" s="2">
+        <v>1250000</v>
+      </c>
+      <c r="O59" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>56</v>
+      </c>
+      <c r="R59" t="s">
+        <v>57</v>
+      </c>
+      <c r="S59">
+        <v>15803</v>
+      </c>
+      <c r="T59" t="s">
+        <v>58</v>
+      </c>
+      <c r="U59" t="s">
+        <v>59</v>
+      </c>
+      <c r="V59" t="s">
+        <v>60</v>
+      </c>
+      <c r="W59" t="s">
+        <v>61</v>
+      </c>
+      <c r="X59">
+        <v>2105478</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI59">
+        <v>54001238</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>45287</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP59">
+        <v>1201</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX59">
+        <v>24001225</v>
+      </c>
+      <c r="AY59">
+        <v>631100</v>
+      </c>
+      <c r="AZ59">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60">
+        <v>24001742</v>
+      </c>
+      <c r="D60">
+        <v>1201</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60">
+        <v>549.52</v>
+      </c>
+      <c r="H60">
+        <v>549.52</v>
+      </c>
+      <c r="I60" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60" s="2">
+        <v>8684000</v>
+      </c>
+      <c r="N60" s="2">
+        <v>8684000</v>
+      </c>
+      <c r="O60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>56</v>
+      </c>
+      <c r="R60" t="s">
+        <v>57</v>
+      </c>
+      <c r="S60">
+        <v>15803</v>
+      </c>
+      <c r="T60" t="s">
+        <v>58</v>
+      </c>
+      <c r="U60" t="s">
+        <v>59</v>
+      </c>
+      <c r="V60" t="s">
+        <v>60</v>
+      </c>
+      <c r="W60" t="s">
+        <v>61</v>
+      </c>
+      <c r="X60">
+        <v>2105494</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI60">
+        <v>55229662</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>45295</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP60">
+        <v>1201</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX60">
+        <v>24001262</v>
+      </c>
+      <c r="AY60">
+        <v>631100</v>
+      </c>
+      <c r="AZ60">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61">
+        <v>24001743</v>
+      </c>
+      <c r="D61">
+        <v>1201</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61">
+        <v>29.11</v>
+      </c>
+      <c r="H61">
+        <v>29.11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>55</v>
+      </c>
+      <c r="J61" t="s">
+        <v>55</v>
+      </c>
+      <c r="L61" s="2">
+        <v>460000</v>
+      </c>
+      <c r="N61" s="2">
+        <v>460000</v>
+      </c>
+      <c r="O61" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>56</v>
+      </c>
+      <c r="R61" t="s">
+        <v>57</v>
+      </c>
+      <c r="S61">
+        <v>15803</v>
+      </c>
+      <c r="T61" t="s">
+        <v>58</v>
+      </c>
+      <c r="U61" t="s">
+        <v>59</v>
+      </c>
+      <c r="V61" t="s">
+        <v>60</v>
+      </c>
+      <c r="W61" t="s">
+        <v>61</v>
+      </c>
+      <c r="X61">
+        <v>2105494</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI61">
+        <v>55426480</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>45295</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP61">
+        <v>1201</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX61">
+        <v>24001264</v>
+      </c>
+      <c r="AY61">
+        <v>631100</v>
+      </c>
+      <c r="AZ61">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62">
+        <v>24001745</v>
+      </c>
+      <c r="D62">
+        <v>1201</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62">
+        <v>718.85</v>
+      </c>
+      <c r="H62">
+        <v>718.85</v>
+      </c>
+      <c r="I62" t="s">
+        <v>55</v>
+      </c>
+      <c r="J62" t="s">
+        <v>55</v>
+      </c>
+      <c r="L62" s="2">
+        <v>11360042.5</v>
+      </c>
+      <c r="N62" s="2">
+        <v>11360042.5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>56</v>
+      </c>
+      <c r="R62" t="s">
+        <v>57</v>
+      </c>
+      <c r="S62">
+        <v>15803</v>
+      </c>
+      <c r="T62" t="s">
+        <v>58</v>
+      </c>
+      <c r="U62" t="s">
+        <v>59</v>
+      </c>
+      <c r="V62" t="s">
+        <v>60</v>
+      </c>
+      <c r="W62" t="s">
+        <v>61</v>
+      </c>
+      <c r="X62">
+        <v>2105521</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG62">
+        <v>1</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI62">
+        <v>55229662</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>45300</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP62">
+        <v>1201</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX62">
+        <v>24001266</v>
+      </c>
+      <c r="AY62">
+        <v>631100</v>
+      </c>
+      <c r="AZ62">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63">
+        <v>24001746</v>
+      </c>
+      <c r="D63">
+        <v>1201</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F63" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63">
+        <v>29.9</v>
+      </c>
+      <c r="H63">
+        <v>29.9</v>
+      </c>
+      <c r="I63" t="s">
+        <v>55</v>
+      </c>
+      <c r="J63" t="s">
+        <v>55</v>
+      </c>
+      <c r="L63" s="2">
+        <v>472500</v>
+      </c>
+      <c r="N63" s="2">
+        <v>472500</v>
+      </c>
+      <c r="O63" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>56</v>
+      </c>
+      <c r="R63" t="s">
+        <v>57</v>
+      </c>
+      <c r="S63">
+        <v>15803</v>
+      </c>
+      <c r="T63" t="s">
+        <v>58</v>
+      </c>
+      <c r="U63" t="s">
+        <v>59</v>
+      </c>
+      <c r="V63" t="s">
+        <v>60</v>
+      </c>
+      <c r="W63" t="s">
+        <v>61</v>
+      </c>
+      <c r="X63">
+        <v>2105521</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG63">
+        <v>1</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI63">
+        <v>57404874</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>45300</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP63">
+        <v>1201</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX63">
+        <v>24001265</v>
+      </c>
+      <c r="AY63">
+        <v>631100</v>
+      </c>
+      <c r="AZ63">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64">
+        <v>24001012</v>
+      </c>
+      <c r="D64">
+        <v>1201</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F64" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="2">
+        <v>-7960.32</v>
+      </c>
+      <c r="I64" t="s">
+        <v>55</v>
+      </c>
+      <c r="K64" s="2">
+        <v>-7960.32</v>
+      </c>
+      <c r="O64" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>56</v>
+      </c>
+      <c r="R64" t="s">
+        <v>117</v>
+      </c>
+      <c r="T64" t="s">
+        <v>58</v>
+      </c>
+      <c r="U64" t="s">
+        <v>59</v>
+      </c>
+      <c r="V64" t="s">
+        <v>124</v>
+      </c>
+      <c r="W64" t="s">
+        <v>125</v>
+      </c>
+      <c r="X64">
+        <v>2107209</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP64">
+        <v>1201</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY64">
+        <v>631100</v>
+      </c>
+      <c r="AZ64">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65">
+        <v>24001051</v>
+      </c>
+      <c r="D65">
+        <v>1201</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65">
+        <v>322.27999999999997</v>
+      </c>
+      <c r="H65">
+        <v>322.27999999999997</v>
+      </c>
+      <c r="I65" t="s">
+        <v>55</v>
+      </c>
+      <c r="J65" t="s">
+        <v>55</v>
+      </c>
+      <c r="L65" s="2">
+        <v>5093000</v>
+      </c>
+      <c r="N65" s="2">
+        <v>5093000</v>
+      </c>
+      <c r="O65" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>56</v>
+      </c>
+      <c r="R65" t="s">
+        <v>57</v>
+      </c>
+      <c r="S65">
+        <v>15803</v>
+      </c>
+      <c r="T65" t="s">
+        <v>58</v>
+      </c>
+      <c r="U65" t="s">
+        <v>59</v>
+      </c>
+      <c r="V65" t="s">
+        <v>124</v>
+      </c>
+      <c r="W65" t="s">
+        <v>125</v>
+      </c>
+      <c r="X65">
+        <v>2106437</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP65">
+        <v>1201</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY65">
+        <v>631100</v>
+      </c>
+      <c r="AZ65">
+        <v>1201.6311000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>152</v>
+      </c>
+      <c r="G66" s="2">
+        <v>2808.4</v>
+      </c>
+      <c r="H66" s="2">
+        <v>10768.72</v>
+      </c>
+      <c r="K66" s="2">
+        <v>-7960.32</v>
+      </c>
+      <c r="L66" s="2">
+        <v>169780727.5</v>
+      </c>
+      <c r="N66" s="2">
+        <v>169780727.5</v>
+      </c>
+      <c r="AG66" s="2">
+        <v>100134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>153</v>
+      </c>
+      <c r="G67" s="2">
+        <v>2808.4</v>
+      </c>
+      <c r="H67" s="2">
+        <v>2808.4</v>
+      </c>
+      <c r="L67" s="2">
+        <v>169780727.5</v>
+      </c>
+      <c r="N67" s="2">
+        <v>169780727.5</v>
+      </c>
+      <c r="AG67" s="2">
+        <v>100134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>154</v>
+      </c>
+      <c r="G68" s="2">
+        <v>2808.4</v>
+      </c>
+      <c r="H68" s="2">
+        <v>10768.72</v>
+      </c>
+      <c r="K68" s="2">
+        <v>-7960.32</v>
+      </c>
+      <c r="L68" s="2">
+        <v>169780727.5</v>
+      </c>
+      <c r="N68" s="2">
+        <v>169780727.5</v>
+      </c>
+      <c r="AG68" s="2">
+        <v>100134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
